--- a/data/trans_camb/P23_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Estudios-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2012/2007</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-0,36</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 3,62</t>
+          <t>-6,68; 1,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,63; -0,27</t>
+          <t>-1,45; 4,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,75; -0,69</t>
+          <t>-2,81; 2,02</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,17%</t>
+          <t>-5,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-23,84%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-16,07%</t>
+          <t>-1,52%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,34; 14,29</t>
+          <t>-17,3; 5,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-40,13; -2,88</t>
+          <t>-9,73; 36,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,75; -3,67</t>
+          <t>-11,26; 9,36</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-10,88</t>
+          <t>-4,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-10,61</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,85</t>
+          <t>-1,51</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,22; -8,01</t>
+          <t>-8,35; -1,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,26; -7,75</t>
+          <t>-1,68; 5,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,27; -8,59</t>
+          <t>-4,14; 0,59</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-29,85%</t>
+          <t>-9,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-34,04%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-32,05%</t>
+          <t>-3,63%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-38,43; -23,07</t>
+          <t>-16,63; -2,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,5; -26,04</t>
+          <t>-4,73; 15,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-38,57; -26,17</t>
+          <t>-9,73; 1,47</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-7,51</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,96</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,75</t>
+          <t>-0,25</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,36; -3,17</t>
+          <t>-7,65; 5,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,76; -1,91</t>
+          <t>-5,14; 7,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,05; -3,65</t>
+          <t>-4,71; 4,06</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-34,65%</t>
+          <t>-4,08%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-31,91%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-33,47%</t>
+          <t>-0,78%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-50,77; -16,46</t>
+          <t>-20,63; 15,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-46,73; -11,93</t>
+          <t>-16,33; 28,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-45,81; -19,68</t>
+          <t>-13,87; 13,19</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-8,73</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-7,3</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-8,12</t>
+          <t>-0,4</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,12; -6,3</t>
+          <t>-5,4; -0,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,42; -5,43</t>
+          <t>-0,3; 3,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,73; -6,58</t>
+          <t>-2,12; 1,25</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-27,24%</t>
+          <t>-6,53%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-30,5%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-29,11%</t>
+          <t>-1,18%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-33,6; -20,42</t>
+          <t>-12,44; -1,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-37,97; -23,66</t>
+          <t>-1,16; 16,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-34,04; -24,22</t>
+          <t>-6,06; 3,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P23_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Estudios-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 1,98</t>
+          <t>-6,02; 2,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 4,4</t>
+          <t>-1,17; 4,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 2,02</t>
+          <t>-2,76; 2,09</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 5,8</t>
+          <t>-15,86; 8,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 36,33</t>
+          <t>-8,15; 32,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 9,36</t>
+          <t>-11,16; 9,36</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,35; -1,36</t>
+          <t>-8,05; -1,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 5,21</t>
+          <t>-1,64; 4,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 0,59</t>
+          <t>-3,76; 0,98</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,63; -2,87</t>
+          <t>-16,0; -2,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 15,74</t>
+          <t>-4,59; 14,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 1,47</t>
+          <t>-8,73; 2,4</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 5,16</t>
+          <t>-7,58; 5,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 7,62</t>
+          <t>-4,95; 7,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 4,06</t>
+          <t>-4,66; 4,18</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,63; 15,88</t>
+          <t>-19,96; 16,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 28,62</t>
+          <t>-16,09; 29,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 13,19</t>
+          <t>-13,51; 13,92</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,4; -0,56</t>
+          <t>-5,06; -0,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 3,94</t>
+          <t>-0,05; 4,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 1,25</t>
+          <t>-2,0; 1,25</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,44; -1,44</t>
+          <t>-11,61; -0,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 16,16</t>
+          <t>-0,26; 17,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 3,8</t>
+          <t>-5,8; 3,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P23_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 2,81</t>
+          <t>-6,57; 2,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 4,02</t>
+          <t>-1,29; 4,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 2,09</t>
+          <t>-2,87; 2,09</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 8,09</t>
+          <t>-17,13; 6,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 32,34</t>
+          <t>-8,58; 35,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 9,36</t>
+          <t>-11,74; 9,31</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,05; -1,4</t>
+          <t>-7,95; -1,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 4,77</t>
+          <t>-1,9; 4,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 0,98</t>
+          <t>-3,73; 1,02</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,0; -2,99</t>
+          <t>-15,92; -2,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 14,44</t>
+          <t>-5,01; 14,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 2,4</t>
+          <t>-8,96; 2,48</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 5,14</t>
+          <t>-7,44; 4,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 7,7</t>
+          <t>-4,51; 7,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 4,18</t>
+          <t>-4,54; 4,38</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 16,49</t>
+          <t>-19,69; 15,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 29,53</t>
+          <t>-14,38; 29,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 13,92</t>
+          <t>-13,37; 14,52</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,06; -0,31</t>
+          <t>-5,37; -0,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 4,29</t>
+          <t>-0,28; 4,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 1,25</t>
+          <t>-2,02; 1,2</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,61; -0,69</t>
+          <t>-12,29; -1,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 17,47</t>
+          <t>-1,04; 17,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 3,74</t>
+          <t>-5,87; 3,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P23_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +513,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente</t>
+          <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +530,19 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +554,27 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2012/2007</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -542,6 +584,9 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -561,12 +606,27 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>-6,46</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>1,53</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-0,36</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-2,79</t>
         </is>
       </c>
     </row>
@@ -584,12 +644,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-11,02; -2,02</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-1,29; 4,32</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 3,2</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>-2,87; 2,09</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-5,37; -0,05</t>
         </is>
       </c>
     </row>
@@ -607,12 +682,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-17,78%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>11,39%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2,26%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-1,52%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-11,89%</t>
         </is>
       </c>
     </row>
@@ -630,12 +720,27 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-28,45; -5,72</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-8,58; 35,47</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-18,5; 26,05</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>-11,74; 9,31</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-21,32; -0,07</t>
         </is>
       </c>
     </row>
@@ -657,12 +762,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>-9,06</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1,75</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>-1,19</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-1,51</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-5,28</t>
         </is>
       </c>
     </row>
@@ -680,12 +800,27 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>-12,19; -5,6</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-1,9; 4,92</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-4,71; 1,81</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>-3,73; 1,02</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-7,53; -2,86</t>
         </is>
       </c>
     </row>
@@ -703,12 +838,27 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>-18,76%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>5,07%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>-3,46%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-3,63%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-12,69%</t>
         </is>
       </c>
     </row>
@@ -726,12 +876,27 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>-24,39; -11,9</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-5,01; 14,84</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-13,07; 5,53</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>-8,96; 2,48</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-17,6; -6,93</t>
         </is>
       </c>
     </row>
@@ -753,12 +918,27 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>-9,46</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>1,28</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-6,87</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-0,25</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-8,38</t>
         </is>
       </c>
     </row>
@@ -776,12 +956,27 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
+          <t>-14,86; -3,87</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-4,51; 7,55</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-12,68; -1,47</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>-4,54; 4,38</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-12,19; -4,62</t>
         </is>
       </c>
     </row>
@@ -799,12 +994,27 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>-27,04%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>4,39%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>-23,58%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-0,78%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-25,97%</t>
         </is>
       </c>
     </row>
@@ -822,12 +1032,27 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>-39,86; -11,66</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>-14,38; 29,1</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-39,06; -5,38</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>-13,37; 14,52</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-36,04; -15,55</t>
         </is>
       </c>
     </row>
@@ -849,12 +1074,27 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>-7,36</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>1,93</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-0,4</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-3,38</t>
         </is>
       </c>
     </row>
@@ -872,12 +1112,27 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
+          <t>-9,7; -5,01</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>-0,28; 4,27</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-1,78; 2,63</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>-2,02; 1,2</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-5,03; -1,78</t>
         </is>
       </c>
     </row>
@@ -895,12 +1150,27 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
+          <t>-17,41%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>7,57%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2,12%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-1,18%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-9,99%</t>
         </is>
       </c>
     </row>
@@ -918,12 +1188,27 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
+          <t>-22,43; -12,3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>-1,04; 17,61</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-6,78; 10,73</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-5,87; 3,63</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>-14,35; -5,37</t>
         </is>
       </c>
     </row>
@@ -935,9 +1220,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>

--- a/data/trans_camb/P23_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Estudios-trans_camb.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016)</t>
+          <t>Población que fuma diariamente tabaco y/o marihuana/hachís</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 2,06</t>
+          <t>-6,42; 2,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,02; -2,02</t>
+          <t>-10,81; -2,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 4,32</t>
+          <t>-1,4; 4,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 3,2</t>
+          <t>-2,32; 3,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 2,09</t>
+          <t>-3,02; 2,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,37; -0,05</t>
+          <t>-5,5; -0,36</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,13; 6,05</t>
+          <t>-17,18; 7,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,45; -5,72</t>
+          <t>-28,3; -6,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 35,47</t>
+          <t>-9,07; 35,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,5; 26,05</t>
+          <t>-15,72; 26,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 9,31</t>
+          <t>-12,23; 10,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,32; -0,07</t>
+          <t>-22,45; -1,65</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,95; -1,41</t>
+          <t>-8,09; -1,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,19; -5,6</t>
+          <t>-12,19; -5,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 4,92</t>
+          <t>-1,59; 4,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 1,81</t>
+          <t>-4,3; 1,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 1,02</t>
+          <t>-3,9; 0,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,53; -2,86</t>
+          <t>-7,53; -2,94</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,92; -2,89</t>
+          <t>-16,16; -3,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,39; -11,9</t>
+          <t>-24,22; -12,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 14,84</t>
+          <t>-4,5; 14,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 5,53</t>
+          <t>-11,84; 4,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 2,48</t>
+          <t>-9,11; 1,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,6; -6,93</t>
+          <t>-17,5; -7,19</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 4,84</t>
+          <t>-7,35; 5,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,86; -3,87</t>
+          <t>-15,35; -3,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 7,55</t>
+          <t>-5,36; 7,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,68; -1,47</t>
+          <t>-12,02; -1,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 4,38</t>
+          <t>-4,57; 3,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,19; -4,62</t>
+          <t>-12,15; -4,52</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,69; 15,26</t>
+          <t>-19,36; 16,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,86; -11,66</t>
+          <t>-40,63; -11,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 29,1</t>
+          <t>-16,73; 29,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-39,06; -5,38</t>
+          <t>-37,95; -4,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,37; 14,52</t>
+          <t>-13,35; 12,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,04; -15,55</t>
+          <t>-35,31; -13,6</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,37; -0,42</t>
+          <t>-5,17; -0,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,7; -5,01</t>
+          <t>-9,74; -5,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 4,27</t>
+          <t>-0,21; 4,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,63</t>
+          <t>-1,53; 2,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 1,2</t>
+          <t>-2,1; 1,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,03; -1,78</t>
+          <t>-4,99; -1,71</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,29; -1,04</t>
+          <t>-12,03; -0,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,43; -12,3</t>
+          <t>-22,16; -12,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 17,61</t>
+          <t>-0,94; 17,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 10,73</t>
+          <t>-5,8; 11,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 3,63</t>
+          <t>-6,04; 3,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-14,35; -5,37</t>
+          <t>-14,35; -5,2</t>
         </is>
       </c>
     </row>
